--- a/Testdata/ManageUpdatesPage_Data_Testing.xlsx
+++ b/Testdata/ManageUpdatesPage_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC66A84D-B04C-4B0E-9A69-716D70F219F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE82AE-3086-4CB7-B153-3C56067BBA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
-    <t>ICER - ICER RRMM 2022 report</t>
+    <t>AAA - mCRPC</t>
   </si>
 </sst>
 </file>
@@ -94,12 +94,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,14 +382,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -410,7 +408,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">

--- a/Testdata/ManageUpdatesPage_Data_Testing.xlsx
+++ b/Testdata/ManageUpdatesPage_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCE82AE-3086-4CB7-B153-3C56067BBA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD9B93B-75A4-493C-9144-EABC758E2D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3432" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -46,13 +46,19 @@
     <t>pop2</t>
   </si>
   <si>
-    <t>Population</t>
-  </si>
-  <si>
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
     <t>AAA - mCRPC</t>
+  </si>
+  <si>
+    <t>indication_type</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>population_name</t>
   </si>
 </sst>
 </file>
@@ -379,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -391,28 +397,37 @@
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
